--- a/ValidFiles/Valid DMS(space) format.xlsx
+++ b/ValidFiles/Valid DMS(space) format.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\sirpi\KML\valid files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\eclipse-workspace\KML\ValidFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB4439-D952-44AE-81BC-74876AB9402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -27,16 +28,16 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>40° 51' 59.01" S</t>
+    <t>40° 51' 59.01" N</t>
   </si>
   <si>
-    <t>124° 4' 58" W</t>
+    <t>124° 4' 58" E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,6 +198,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,20 +442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
